--- a/Code/Results/Cases/Case_5_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_230/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57198167016303</v>
+        <v>19.2274831784921</v>
       </c>
       <c r="C2">
-        <v>11.10765229166589</v>
+        <v>8.355915025247118</v>
       </c>
       <c r="D2">
-        <v>4.961673408374316</v>
+        <v>8.103667696083249</v>
       </c>
       <c r="E2">
-        <v>7.304846893811305</v>
+        <v>12.63965890866621</v>
       </c>
       <c r="F2">
-        <v>24.48961445749107</v>
+        <v>35.63091631070591</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.628440234062469</v>
+        <v>9.859911517634377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.347114703214866</v>
+        <v>11.19252879243042</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.41410962197264</v>
+        <v>18.51592985720294</v>
       </c>
       <c r="O2">
-        <v>18.10071729454566</v>
+        <v>27.3655506043689</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.21292962075426</v>
+        <v>18.83105297692308</v>
       </c>
       <c r="C3">
-        <v>10.58369083000315</v>
+        <v>8.125909172112635</v>
       </c>
       <c r="D3">
-        <v>4.880534878772137</v>
+        <v>8.103615839439781</v>
       </c>
       <c r="E3">
-        <v>7.333381438083357</v>
+        <v>12.66858514225143</v>
       </c>
       <c r="F3">
-        <v>24.06359541673222</v>
+        <v>35.68512573369722</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.686011083879758</v>
+        <v>9.882424730450484</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.150044849994952</v>
+        <v>11.17846103245517</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.58249596275693</v>
+        <v>18.57153812877309</v>
       </c>
       <c r="O3">
-        <v>17.89405254269779</v>
+        <v>27.42774904111683</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.33581208189858</v>
+        <v>18.58641455618922</v>
       </c>
       <c r="C4">
-        <v>10.24809352776385</v>
+        <v>7.980213968521209</v>
       </c>
       <c r="D4">
-        <v>4.831594933464475</v>
+        <v>8.104414784910588</v>
       </c>
       <c r="E4">
-        <v>7.353847551926108</v>
+        <v>12.68773708461502</v>
       </c>
       <c r="F4">
-        <v>23.82070086500011</v>
+        <v>35.72695103253587</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.722632016837668</v>
+        <v>9.89700270388569</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.028912907304981</v>
+        <v>11.17119862931815</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.6892974568404</v>
+        <v>18.60755564934008</v>
       </c>
       <c r="O4">
-        <v>17.78275745380715</v>
+        <v>27.4721739788592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.96778976352501</v>
+        <v>18.4865505647009</v>
       </c>
       <c r="C5">
-        <v>10.10794408108795</v>
+        <v>7.919775578427606</v>
       </c>
       <c r="D5">
-        <v>4.811890665182019</v>
+        <v>8.104950050786943</v>
       </c>
       <c r="E5">
-        <v>7.362913176155467</v>
+        <v>12.69589192634582</v>
       </c>
       <c r="F5">
-        <v>23.726404220486</v>
+        <v>35.7461386551663</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.737878225419577</v>
+        <v>9.903133647265511</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.979581543600988</v>
+        <v>11.16858732881971</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.73367956773514</v>
+        <v>18.62270535606318</v>
       </c>
       <c r="O5">
-        <v>17.74124172836955</v>
+        <v>27.49184163534608</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.90604522047527</v>
+        <v>18.46996192502068</v>
       </c>
       <c r="C6">
-        <v>10.08447087837302</v>
+        <v>7.909677198482005</v>
       </c>
       <c r="D6">
-        <v>4.808633753436983</v>
+        <v>8.105051617931064</v>
       </c>
       <c r="E6">
-        <v>7.36446189918736</v>
+        <v>12.69726720059501</v>
       </c>
       <c r="F6">
-        <v>23.71102859135599</v>
+        <v>35.74945407147529</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.740429434535879</v>
+        <v>9.904163194405511</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.971393891507943</v>
+        <v>11.16817481990396</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.74110116935722</v>
+        <v>18.62524950981149</v>
       </c>
       <c r="O6">
-        <v>17.73457720335565</v>
+        <v>27.49520179084907</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33089146896803</v>
+        <v>18.58506826740716</v>
       </c>
       <c r="C7">
-        <v>10.24621700633171</v>
+        <v>7.979403113445771</v>
       </c>
       <c r="D7">
-        <v>4.831328202806677</v>
+        <v>8.104421153664246</v>
       </c>
       <c r="E7">
-        <v>7.353966896281111</v>
+        <v>12.6878456448165</v>
       </c>
       <c r="F7">
-        <v>23.81941020763044</v>
+        <v>35.72720113068304</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.722836321274788</v>
+        <v>9.897084616736365</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.028247395918356</v>
+        <v>11.17116199960389</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.68989252595622</v>
+        <v>18.60775804991546</v>
       </c>
       <c r="O7">
-        <v>17.782182137742</v>
+        <v>27.4724328957577</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.11230137417268</v>
+        <v>19.09113009239256</v>
       </c>
       <c r="C8">
-        <v>10.92992605959319</v>
+        <v>8.277570153677489</v>
       </c>
       <c r="D8">
-        <v>4.933525153605147</v>
+        <v>8.103477866897652</v>
       </c>
       <c r="E8">
-        <v>7.31406490130237</v>
+        <v>12.64934422573415</v>
       </c>
       <c r="F8">
-        <v>24.33884221671291</v>
+        <v>35.64783288696815</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.648028424781771</v>
+        <v>9.8675177271601</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.27922923334168</v>
+        <v>11.18739426166445</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.47146198984254</v>
+        <v>18.53471533193911</v>
       </c>
       <c r="O8">
-        <v>18.02617449743658</v>
+        <v>27.38570047220431</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2925930856939</v>
+        <v>20.06796052008074</v>
       </c>
       <c r="C9">
-        <v>12.15704500746679</v>
+        <v>8.824495017270159</v>
       </c>
       <c r="D9">
-        <v>5.140122692380427</v>
+        <v>8.108184646511422</v>
       </c>
       <c r="E9">
-        <v>7.259898364096346</v>
+        <v>12.58486036538929</v>
       </c>
       <c r="F9">
-        <v>25.50560301243333</v>
+        <v>35.56011127419416</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.511287113776282</v>
+        <v>9.815502693231251</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.767757763572397</v>
+        <v>11.23002794669143</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.07014784348349</v>
+        <v>18.40629728028922</v>
       </c>
       <c r="O9">
-        <v>18.63164847963339</v>
+        <v>27.26524078556155</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.50286516163861</v>
+        <v>20.76874861954599</v>
       </c>
       <c r="C10">
-        <v>12.98581356090494</v>
+        <v>9.200517073293058</v>
       </c>
       <c r="D10">
-        <v>5.294653318137084</v>
+        <v>8.115590790846957</v>
       </c>
       <c r="E10">
-        <v>7.235795210448314</v>
+        <v>12.54417237425908</v>
       </c>
       <c r="F10">
-        <v>26.45235497294138</v>
+        <v>35.53723489104203</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.416698446879955</v>
+        <v>9.780891460653205</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.12126734332014</v>
+        <v>11.26778068874078</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.7917917667514</v>
+        <v>18.32091351637756</v>
       </c>
       <c r="O10">
-        <v>19.15767602012107</v>
+        <v>27.2071786534323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.45629295107476</v>
+        <v>21.08244224020462</v>
       </c>
       <c r="C11">
-        <v>13.34656787376982</v>
+        <v>9.365476359181146</v>
       </c>
       <c r="D11">
-        <v>5.365342804166375</v>
+        <v>8.119805954673136</v>
       </c>
       <c r="E11">
-        <v>7.228468426920941</v>
+        <v>12.52710869349597</v>
       </c>
       <c r="F11">
-        <v>26.90219395046284</v>
+        <v>35.5358738226647</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.374901037331254</v>
+        <v>9.765921632414365</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.28033524187668</v>
+        <v>11.2863150046207</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.66877330480714</v>
+        <v>18.28400255283718</v>
       </c>
       <c r="O11">
-        <v>19.41523886251529</v>
+        <v>27.18740703136135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.80993839117957</v>
+        <v>21.20038541216457</v>
       </c>
       <c r="C12">
-        <v>13.48081408408033</v>
+        <v>9.42702931914403</v>
       </c>
       <c r="D12">
-        <v>5.392151432591822</v>
+        <v>8.121522726769184</v>
       </c>
       <c r="E12">
-        <v>7.226237051096566</v>
+        <v>12.52085452089921</v>
       </c>
       <c r="F12">
-        <v>27.07526066746355</v>
+        <v>35.53665913752378</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.359247187570234</v>
+        <v>9.760363874769929</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.34027788553434</v>
+        <v>11.29352569144122</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.62271382061842</v>
+        <v>18.27030190274291</v>
       </c>
       <c r="O12">
-        <v>19.51544005996809</v>
+        <v>27.18087698082791</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.7341020731557</v>
+        <v>21.17502357314627</v>
       </c>
       <c r="C13">
-        <v>13.45200719023637</v>
+        <v>9.413813967951945</v>
       </c>
       <c r="D13">
-        <v>5.38637618217067</v>
+        <v>8.12114764409942</v>
       </c>
       <c r="E13">
-        <v>7.226693135485649</v>
+        <v>12.52219224761555</v>
       </c>
       <c r="F13">
-        <v>27.03786705614514</v>
+        <v>35.53643216589552</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.3626108392433</v>
+        <v>9.761555908091566</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.327381801666137</v>
+        <v>11.29196425253497</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.63261008473477</v>
+        <v>18.27324028894359</v>
       </c>
       <c r="O13">
-        <v>19.49374068793296</v>
+        <v>27.18224075180044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.48553530887441</v>
+        <v>21.09216306636072</v>
       </c>
       <c r="C14">
-        <v>13.35765987374242</v>
+        <v>9.370558865849796</v>
       </c>
       <c r="D14">
-        <v>5.367547653267082</v>
+        <v>8.119944784308103</v>
       </c>
       <c r="E14">
-        <v>7.228273847992448</v>
+        <v>12.52659000310067</v>
       </c>
       <c r="F14">
-        <v>26.91637786697354</v>
+        <v>35.53591236591142</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.373609718117176</v>
+        <v>9.765462170486289</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.285272850468173</v>
+        <v>11.28690440183664</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.66497339914475</v>
+        <v>18.28286985096249</v>
       </c>
       <c r="O14">
-        <v>19.42342879221956</v>
+        <v>27.18685060963285</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.3323203279774</v>
+        <v>21.04129524655178</v>
       </c>
       <c r="C15">
-        <v>13.29956100678197</v>
+        <v>9.343943861340135</v>
       </c>
       <c r="D15">
-        <v>5.356019384571735</v>
+        <v>8.119223668148861</v>
       </c>
       <c r="E15">
-        <v>7.229313417219495</v>
+        <v>12.52931076294351</v>
       </c>
       <c r="F15">
-        <v>26.84231585883227</v>
+        <v>35.5357633498237</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.380369405106311</v>
+        <v>9.767869310022979</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.259440604342664</v>
+        <v>11.28383001386782</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.68486544899149</v>
+        <v>18.28880424857861</v>
       </c>
       <c r="O15">
-        <v>19.38070927591643</v>
+        <v>27.18979896795077</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.43951651320664</v>
+        <v>20.74813561609231</v>
       </c>
       <c r="C16">
-        <v>12.96190784399846</v>
+        <v>9.189610690609671</v>
       </c>
       <c r="D16">
-        <v>5.290040066923236</v>
+        <v>8.115332253692852</v>
       </c>
       <c r="E16">
-        <v>7.236348927495106</v>
+        <v>12.54531657982824</v>
       </c>
       <c r="F16">
-        <v>26.42333961969616</v>
+        <v>35.53750587875474</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.419454515775938</v>
+        <v>9.781885330273996</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.110833051459961</v>
+        <v>11.2665965086167</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.79990438095454</v>
+        <v>18.32336450641261</v>
       </c>
       <c r="O16">
-        <v>19.14121488940168</v>
+        <v>27.20860459694713</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.87854179199996</v>
+        <v>20.56690341627012</v>
       </c>
       <c r="C17">
-        <v>12.75058313428661</v>
+        <v>9.093343592224638</v>
       </c>
       <c r="D17">
-        <v>5.249652440770443</v>
+        <v>8.113160941916449</v>
       </c>
       <c r="E17">
-        <v>7.241610709008447</v>
+        <v>12.55550557964415</v>
       </c>
       <c r="F17">
-        <v>26.17119435054657</v>
+        <v>35.5408919178151</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.443745121744635</v>
+        <v>9.790681876461809</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.019188536521755</v>
+        <v>11.25637031919759</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.87140467540748</v>
+        <v>18.34505993020112</v>
       </c>
       <c r="O17">
-        <v>18.999002580497</v>
+        <v>27.22184378925747</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55098059623922</v>
+        <v>20.46218984696113</v>
       </c>
       <c r="C18">
-        <v>12.62750546080944</v>
+        <v>9.03740157465541</v>
       </c>
       <c r="D18">
-        <v>5.226460428943421</v>
+        <v>8.111991765148451</v>
       </c>
       <c r="E18">
-        <v>7.244978316044295</v>
+        <v>12.56150210238899</v>
       </c>
       <c r="F18">
-        <v>26.02797214069414</v>
+        <v>35.5436909425684</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.457832534985337</v>
+        <v>9.79581439007981</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.966314919081214</v>
+        <v>11.2506167520367</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.91286877640925</v>
+        <v>18.35772032661962</v>
       </c>
       <c r="O18">
-        <v>18.9189234458874</v>
+        <v>27.23008362216783</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.43922932621516</v>
+        <v>20.42665784089769</v>
       </c>
       <c r="C19">
-        <v>12.58557177572121</v>
+        <v>9.018363566856086</v>
       </c>
       <c r="D19">
-        <v>5.218615037460032</v>
+        <v>8.111609623433292</v>
       </c>
       <c r="E19">
-        <v>7.246176529629446</v>
+        <v>12.56355580553133</v>
       </c>
       <c r="F19">
-        <v>25.97979059576857</v>
+        <v>35.54478486958684</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.462622327428289</v>
+        <v>9.797564718021581</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.94838634391745</v>
+        <v>11.24869082631872</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.9269658808316</v>
+        <v>18.36203816435014</v>
       </c>
       <c r="O19">
-        <v>18.89210372210029</v>
+        <v>27.23298076283874</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93876538625742</v>
+        <v>20.58624574825535</v>
       </c>
       <c r="C20">
-        <v>12.77323750595174</v>
+        <v>9.103650841749952</v>
       </c>
       <c r="D20">
-        <v>5.253947974435873</v>
+        <v>8.113383840351398</v>
       </c>
       <c r="E20">
-        <v>7.241015131307517</v>
+        <v>12.55440686230274</v>
       </c>
       <c r="F20">
-        <v>26.19784906626628</v>
+        <v>35.54044334193561</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.441147352337104</v>
+        <v>9.789737919968383</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.028961351109141</v>
+        <v>11.2574456641111</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86375822114623</v>
+        <v>18.3427316099923</v>
       </c>
       <c r="O20">
-        <v>19.01396324894951</v>
+        <v>27.22036975327385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.55874543245084</v>
+        <v>21.1165250221495</v>
       </c>
       <c r="C21">
-        <v>13.38543627265229</v>
+        <v>9.383289007766479</v>
       </c>
       <c r="D21">
-        <v>5.373077086558883</v>
+        <v>8.120294829737178</v>
       </c>
       <c r="E21">
-        <v>7.227794650991265</v>
+        <v>12.52529264803801</v>
       </c>
       <c r="F21">
-        <v>26.95198854443696</v>
+        <v>35.53602974718201</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.370374385743113</v>
+        <v>9.764311797834219</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.297649526900164</v>
+        <v>11.28838541646435</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.65545320179925</v>
+        <v>18.2800339116669</v>
       </c>
       <c r="O21">
-        <v>19.444008395938</v>
+        <v>27.1854705948886</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.57442473983218</v>
+        <v>21.45811613888675</v>
       </c>
       <c r="C22">
-        <v>13.77176140484453</v>
+        <v>9.560709332482565</v>
       </c>
       <c r="D22">
-        <v>5.451161572974432</v>
+        <v>8.125513860895978</v>
       </c>
       <c r="E22">
-        <v>7.22232987164243</v>
+        <v>12.50747395768505</v>
       </c>
       <c r="F22">
-        <v>27.46071851186041</v>
+        <v>35.54072615581273</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.325132450435966</v>
+        <v>9.748341093843889</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.471529876688971</v>
+        <v>11.30972456494288</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.52237812010794</v>
+        <v>18.24066994858188</v>
       </c>
       <c r="O22">
-        <v>19.74063380551657</v>
+        <v>27.16824093887672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.03624876925586</v>
+        <v>21.27629326606196</v>
       </c>
       <c r="C23">
-        <v>13.56683950588229</v>
+        <v>9.466516597718204</v>
       </c>
       <c r="D23">
-        <v>5.409470777957545</v>
+        <v>8.122664476235601</v>
       </c>
       <c r="E23">
-        <v>7.224949144405719</v>
+        <v>12.51687362026422</v>
       </c>
       <c r="F23">
-        <v>27.18775872716154</v>
+        <v>35.53752617812464</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.349187340677224</v>
+        <v>9.756805930751389</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.378896740036911</v>
+        <v>11.29823433327501</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.59311975690861</v>
+        <v>18.26153196710729</v>
       </c>
       <c r="O23">
-        <v>19.58088250242015</v>
+        <v>27.17692569308173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.91155403333183</v>
+        <v>20.57750269335241</v>
       </c>
       <c r="C24">
-        <v>12.76300039713079</v>
+        <v>9.098992790265891</v>
       </c>
       <c r="D24">
-        <v>5.252005877145861</v>
+        <v>8.113282821389955</v>
       </c>
       <c r="E24">
-        <v>7.241283326558189</v>
+        <v>12.55490316025446</v>
       </c>
       <c r="F24">
-        <v>26.18579304873447</v>
+        <v>35.54064348806587</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.442321422335291</v>
+        <v>9.790164448227234</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.024543637627868</v>
+        <v>11.25695910916954</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.86721406962514</v>
+        <v>18.34378365970842</v>
       </c>
       <c r="O24">
-        <v>19.00719429909395</v>
+        <v>27.22103420750038</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.44793732363166</v>
+        <v>19.80615498248556</v>
       </c>
       <c r="C25">
-        <v>11.83766087397046</v>
+        <v>8.680885141230418</v>
       </c>
       <c r="D25">
-        <v>5.083678034740433</v>
+        <v>8.106214270931881</v>
       </c>
       <c r="E25">
-        <v>7.271871587368621</v>
+        <v>12.60112839112668</v>
       </c>
       <c r="F25">
-        <v>25.17414844487826</v>
+        <v>35.57655051307744</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.547233356412813</v>
+        <v>9.828938867120781</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.636335145322929</v>
+        <v>11.21735331956647</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.17582406264108</v>
+        <v>18.43945853815873</v>
       </c>
       <c r="O25">
-        <v>18.45383078775435</v>
+        <v>27.29249494016692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_230/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.2274831784921</v>
+        <v>21.57198167016303</v>
       </c>
       <c r="C2">
-        <v>8.355915025247118</v>
+        <v>11.10765229166589</v>
       </c>
       <c r="D2">
-        <v>8.103667696083249</v>
+        <v>4.96167340837426</v>
       </c>
       <c r="E2">
-        <v>12.63965890866621</v>
+        <v>7.304846893811304</v>
       </c>
       <c r="F2">
-        <v>35.63091631070591</v>
+        <v>24.48961445749108</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.859911517634377</v>
+        <v>5.628440234062537</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.19252879243042</v>
+        <v>7.347114703214862</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.51592985720294</v>
+        <v>12.41410962197267</v>
       </c>
       <c r="O2">
-        <v>27.3655506043689</v>
+        <v>18.10071729454573</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.83105297692308</v>
+        <v>20.21292962075426</v>
       </c>
       <c r="C3">
-        <v>8.125909172112635</v>
+        <v>10.58369083000303</v>
       </c>
       <c r="D3">
-        <v>8.103615839439781</v>
+        <v>4.880534878772098</v>
       </c>
       <c r="E3">
-        <v>12.66858514225143</v>
+        <v>7.333381438083307</v>
       </c>
       <c r="F3">
-        <v>35.68512573369722</v>
+        <v>24.06359541673218</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.882424730450484</v>
+        <v>5.68601108387976</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.17846103245517</v>
+        <v>7.150044849994957</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.57153812877309</v>
+        <v>12.58249596275692</v>
       </c>
       <c r="O3">
-        <v>27.42774904111683</v>
+        <v>17.89405254269779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58641455618922</v>
+        <v>19.33581208189858</v>
       </c>
       <c r="C4">
-        <v>7.980213968521209</v>
+        <v>10.24809352776374</v>
       </c>
       <c r="D4">
-        <v>8.104414784910588</v>
+        <v>4.831594933464256</v>
       </c>
       <c r="E4">
-        <v>12.68773708461502</v>
+        <v>7.35384755192611</v>
       </c>
       <c r="F4">
-        <v>35.72695103253587</v>
+        <v>23.82070086499995</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.89700270388569</v>
+        <v>5.722632016837771</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.17119862931815</v>
+        <v>7.028912907304946</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.60755564934008</v>
+        <v>12.6892974568405</v>
       </c>
       <c r="O4">
-        <v>27.4721739788592</v>
+        <v>17.78275745380712</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4865505647009</v>
+        <v>18.967789763525</v>
       </c>
       <c r="C5">
-        <v>7.919775578427606</v>
+        <v>10.10794408108774</v>
       </c>
       <c r="D5">
-        <v>8.104950050786943</v>
+        <v>4.811890665181863</v>
       </c>
       <c r="E5">
-        <v>12.69589192634582</v>
+        <v>7.362913176155408</v>
       </c>
       <c r="F5">
-        <v>35.7461386551663</v>
+        <v>23.72640422048579</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.903133647265511</v>
+        <v>5.737878225419609</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.16858732881971</v>
+        <v>6.979581543600985</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.62270535606318</v>
+        <v>12.7336795677351</v>
       </c>
       <c r="O5">
-        <v>27.49184163534608</v>
+        <v>17.74124172836945</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46996192502068</v>
+        <v>18.90604522047526</v>
       </c>
       <c r="C6">
-        <v>7.909677198482005</v>
+        <v>10.08447087837301</v>
       </c>
       <c r="D6">
-        <v>8.105051617931064</v>
+        <v>4.808633753436883</v>
       </c>
       <c r="E6">
-        <v>12.69726720059501</v>
+        <v>7.364461899187298</v>
       </c>
       <c r="F6">
-        <v>35.74945407147529</v>
+        <v>23.71102859135595</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.904163194405511</v>
+        <v>5.740429434535944</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.16817481990396</v>
+        <v>6.97139389150794</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.62524950981149</v>
+        <v>12.74110116935726</v>
       </c>
       <c r="O6">
-        <v>27.49520179084907</v>
+        <v>17.73457720335563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58506826740716</v>
+        <v>19.33089146896802</v>
       </c>
       <c r="C7">
-        <v>7.979403113445771</v>
+        <v>10.24621700633188</v>
       </c>
       <c r="D7">
-        <v>8.104421153664246</v>
+        <v>4.831328202806681</v>
       </c>
       <c r="E7">
-        <v>12.6878456448165</v>
+        <v>7.35396689628123</v>
       </c>
       <c r="F7">
-        <v>35.72720113068304</v>
+        <v>23.81941020763021</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.897084616736365</v>
+        <v>5.722836321274921</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.17116199960389</v>
+        <v>7.028247395918449</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.60775804991546</v>
+        <v>12.68989252595619</v>
       </c>
       <c r="O7">
-        <v>27.4724328957577</v>
+        <v>17.78218213774185</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.09113009239256</v>
+        <v>21.11230137417267</v>
       </c>
       <c r="C8">
-        <v>8.277570153677489</v>
+        <v>10.92992605959318</v>
       </c>
       <c r="D8">
-        <v>8.103477866897652</v>
+        <v>4.933525153605236</v>
       </c>
       <c r="E8">
-        <v>12.64934422573415</v>
+        <v>7.314064901302491</v>
       </c>
       <c r="F8">
-        <v>35.64783288696815</v>
+        <v>24.33884221671276</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.8675177271601</v>
+        <v>5.648028424781738</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.18739426166445</v>
+        <v>7.279229233341692</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.53471533193911</v>
+        <v>12.47146198984241</v>
       </c>
       <c r="O8">
-        <v>27.38570047220431</v>
+        <v>18.02617449743643</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.06796052008074</v>
+        <v>24.29259308569385</v>
       </c>
       <c r="C9">
-        <v>8.824495017270159</v>
+        <v>12.15704500746674</v>
       </c>
       <c r="D9">
-        <v>8.108184646511422</v>
+        <v>5.140122692380264</v>
       </c>
       <c r="E9">
-        <v>12.58486036538929</v>
+        <v>7.259898364096286</v>
       </c>
       <c r="F9">
-        <v>35.56011127419416</v>
+        <v>25.50560301243335</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.815502693231251</v>
+        <v>5.511287113776279</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.23002794669143</v>
+        <v>7.767757763572404</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.40629728028922</v>
+        <v>12.07014784348349</v>
       </c>
       <c r="O9">
-        <v>27.26524078556155</v>
+        <v>18.63164847963344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.76874861954599</v>
+        <v>26.50286516163861</v>
       </c>
       <c r="C10">
-        <v>9.200517073293058</v>
+        <v>12.98581356090489</v>
       </c>
       <c r="D10">
-        <v>8.115590790846957</v>
+        <v>5.294653318137084</v>
       </c>
       <c r="E10">
-        <v>12.54417237425908</v>
+        <v>7.235795210448257</v>
       </c>
       <c r="F10">
-        <v>35.53723489104203</v>
+        <v>26.45235497294133</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.780891460653205</v>
+        <v>5.416698446879921</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.26778068874078</v>
+        <v>8.12126734332012</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.32091351637756</v>
+        <v>11.7917917667513</v>
       </c>
       <c r="O10">
-        <v>27.2071786534323</v>
+        <v>19.15767602012103</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.08244224020462</v>
+        <v>27.45629295107479</v>
       </c>
       <c r="C11">
-        <v>9.365476359181146</v>
+        <v>13.34656787376981</v>
       </c>
       <c r="D11">
-        <v>8.119805954673136</v>
+        <v>5.365342804166363</v>
       </c>
       <c r="E11">
-        <v>12.52710869349597</v>
+        <v>7.228468426920941</v>
       </c>
       <c r="F11">
-        <v>35.5358738226647</v>
+        <v>26.90219395046272</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.765921632414365</v>
+        <v>5.37490103733122</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.2863150046207</v>
+        <v>8.280335241876696</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.28400255283718</v>
+        <v>11.66877330480704</v>
       </c>
       <c r="O11">
-        <v>27.18740703136135</v>
+        <v>19.41523886251522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.20038541216457</v>
+        <v>27.80993839117955</v>
       </c>
       <c r="C12">
-        <v>9.42702931914403</v>
+        <v>13.48081408408033</v>
       </c>
       <c r="D12">
-        <v>8.121522726769184</v>
+        <v>5.392151432591984</v>
       </c>
       <c r="E12">
-        <v>12.52085452089921</v>
+        <v>7.226237051096611</v>
       </c>
       <c r="F12">
-        <v>35.53665913752378</v>
+        <v>27.07526066746361</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.760363874769929</v>
+        <v>5.359247187570166</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.29352569144122</v>
+        <v>8.340277885534341</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.27030190274291</v>
+        <v>11.62271382061842</v>
       </c>
       <c r="O12">
-        <v>27.18087698082791</v>
+        <v>19.51544005996812</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.17502357314627</v>
+        <v>27.73410207315566</v>
       </c>
       <c r="C13">
-        <v>9.413813967951945</v>
+        <v>13.4520071902363</v>
       </c>
       <c r="D13">
-        <v>8.12114764409942</v>
+        <v>5.38637618217062</v>
       </c>
       <c r="E13">
-        <v>12.52219224761555</v>
+        <v>7.226693135485594</v>
       </c>
       <c r="F13">
-        <v>35.53643216589552</v>
+        <v>27.03786705614524</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.761555908091566</v>
+        <v>5.3626108392433</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.29196425253497</v>
+        <v>8.327381801666153</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.27324028894359</v>
+        <v>11.63261008473486</v>
       </c>
       <c r="O13">
-        <v>27.18224075180044</v>
+        <v>19.49374068793306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.09216306636072</v>
+        <v>27.48553530887438</v>
       </c>
       <c r="C14">
-        <v>9.370558865849796</v>
+        <v>13.35765987374234</v>
       </c>
       <c r="D14">
-        <v>8.119944784308103</v>
+        <v>5.367547653267183</v>
       </c>
       <c r="E14">
-        <v>12.52659000310067</v>
+        <v>7.228273847992499</v>
       </c>
       <c r="F14">
-        <v>35.53591236591142</v>
+        <v>26.91637786697361</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.765462170486289</v>
+        <v>5.373609718117174</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.28690440183664</v>
+        <v>8.285272850468228</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.28286985096249</v>
+        <v>11.66497339914475</v>
       </c>
       <c r="O14">
-        <v>27.18685060963285</v>
+        <v>19.42342879221961</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.04129524655178</v>
+        <v>27.33232032797741</v>
       </c>
       <c r="C15">
-        <v>9.343943861340135</v>
+        <v>13.29956100678197</v>
       </c>
       <c r="D15">
-        <v>8.119223668148861</v>
+        <v>5.356019384571608</v>
       </c>
       <c r="E15">
-        <v>12.52931076294351</v>
+        <v>7.229313417219381</v>
       </c>
       <c r="F15">
-        <v>35.5357633498237</v>
+        <v>26.8423158588322</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.767869310022979</v>
+        <v>5.380369405106279</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.28383001386782</v>
+        <v>8.259440604342617</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.28880424857861</v>
+        <v>11.68486544899149</v>
       </c>
       <c r="O15">
-        <v>27.18979896795077</v>
+        <v>19.38070927591643</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.74813561609231</v>
+        <v>26.43951651320662</v>
       </c>
       <c r="C16">
-        <v>9.189610690609671</v>
+        <v>12.96190784399848</v>
       </c>
       <c r="D16">
-        <v>8.115332253692852</v>
+        <v>5.290040066923229</v>
       </c>
       <c r="E16">
-        <v>12.54531657982824</v>
+        <v>7.236348927495106</v>
       </c>
       <c r="F16">
-        <v>35.53750587875474</v>
+        <v>26.42333961969622</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.781885330273996</v>
+        <v>5.419454515775906</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.2665965086167</v>
+        <v>8.110833051459968</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.32336450641261</v>
+        <v>11.79990438095454</v>
       </c>
       <c r="O16">
-        <v>27.20860459694713</v>
+        <v>19.14121488940174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.56690341627012</v>
+        <v>25.87854179199991</v>
       </c>
       <c r="C17">
-        <v>9.093343592224638</v>
+        <v>12.75058313428671</v>
       </c>
       <c r="D17">
-        <v>8.113160941916449</v>
+        <v>5.249652440770409</v>
       </c>
       <c r="E17">
-        <v>12.55550557964415</v>
+        <v>7.241610709008335</v>
       </c>
       <c r="F17">
-        <v>35.5408919178151</v>
+        <v>26.17119435054647</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.790681876461809</v>
+        <v>5.443745121744567</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.25637031919759</v>
+        <v>8.01918853652168</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.34505993020112</v>
+        <v>11.87140467540745</v>
       </c>
       <c r="O17">
-        <v>27.22184378925747</v>
+        <v>18.99900258049694</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.46218984696113</v>
+        <v>25.5509805962392</v>
       </c>
       <c r="C18">
-        <v>9.03740157465541</v>
+        <v>12.62750546080937</v>
       </c>
       <c r="D18">
-        <v>8.111991765148451</v>
+        <v>5.226460428943427</v>
       </c>
       <c r="E18">
-        <v>12.56150210238899</v>
+        <v>7.24497831604417</v>
       </c>
       <c r="F18">
-        <v>35.5436909425684</v>
+        <v>26.02797214069408</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.79581439007981</v>
+        <v>5.457832534985299</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.2506167520367</v>
+        <v>7.966314919081173</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.35772032661962</v>
+        <v>11.91286877640925</v>
       </c>
       <c r="O18">
-        <v>27.23008362216783</v>
+        <v>18.91892344588739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.42665784089769</v>
+        <v>25.43922932621514</v>
       </c>
       <c r="C19">
-        <v>9.018363566856086</v>
+        <v>12.58557177572141</v>
       </c>
       <c r="D19">
-        <v>8.111609623433292</v>
+        <v>5.218615037460014</v>
       </c>
       <c r="E19">
-        <v>12.56355580553133</v>
+        <v>7.246176529629439</v>
       </c>
       <c r="F19">
-        <v>35.54478486958684</v>
+        <v>25.97979059576856</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.797564718021581</v>
+        <v>5.462622327428289</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.24869082631872</v>
+        <v>7.948386343917411</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.36203816435014</v>
+        <v>11.92696588083157</v>
       </c>
       <c r="O19">
-        <v>27.23298076283874</v>
+        <v>18.89210372210028</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.58624574825535</v>
+        <v>25.93876538625742</v>
       </c>
       <c r="C20">
-        <v>9.103650841749952</v>
+        <v>12.77323750595184</v>
       </c>
       <c r="D20">
-        <v>8.113383840351398</v>
+        <v>5.253947974435738</v>
       </c>
       <c r="E20">
-        <v>12.55440686230274</v>
+        <v>7.241015131307512</v>
       </c>
       <c r="F20">
-        <v>35.54044334193561</v>
+        <v>26.19784906626618</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.789737919968383</v>
+        <v>5.441147352337166</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.2574456641111</v>
+        <v>8.028961351109123</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.3427316099923</v>
+        <v>11.86375822114623</v>
       </c>
       <c r="O20">
-        <v>27.22036975327385</v>
+        <v>19.01396324894944</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.1165250221495</v>
+        <v>27.55874543245087</v>
       </c>
       <c r="C21">
-        <v>9.383289007766479</v>
+        <v>13.38543627265225</v>
       </c>
       <c r="D21">
-        <v>8.120294829737178</v>
+        <v>5.373077086558805</v>
       </c>
       <c r="E21">
-        <v>12.52529264803801</v>
+        <v>7.227794650991316</v>
       </c>
       <c r="F21">
-        <v>35.53602974718201</v>
+        <v>26.95198854443704</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.764311797834219</v>
+        <v>5.37037438574318</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.28838541646435</v>
+        <v>8.297649526900143</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.2800339116669</v>
+        <v>11.65545320179938</v>
       </c>
       <c r="O21">
-        <v>27.1854705948886</v>
+        <v>19.44400839593811</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.45811613888675</v>
+        <v>28.57442473983213</v>
       </c>
       <c r="C22">
-        <v>9.560709332482565</v>
+        <v>13.77176140484453</v>
       </c>
       <c r="D22">
-        <v>8.125513860895978</v>
+        <v>5.451161572974423</v>
       </c>
       <c r="E22">
-        <v>12.50747395768505</v>
+        <v>7.222329871642446</v>
       </c>
       <c r="F22">
-        <v>35.54072615581273</v>
+        <v>27.46071851186053</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.748341093843889</v>
+        <v>5.325132450435935</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.30972456494288</v>
+        <v>8.471529876688955</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.24066994858188</v>
+        <v>11.52237812010807</v>
       </c>
       <c r="O22">
-        <v>27.16824093887672</v>
+        <v>19.74063380551667</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.27629326606196</v>
+        <v>28.03624876925586</v>
       </c>
       <c r="C23">
-        <v>9.466516597718204</v>
+        <v>13.56683950588228</v>
       </c>
       <c r="D23">
-        <v>8.122664476235601</v>
+        <v>5.409470777957538</v>
       </c>
       <c r="E23">
-        <v>12.51687362026422</v>
+        <v>7.224949144405659</v>
       </c>
       <c r="F23">
-        <v>35.53752617812464</v>
+        <v>27.18775872716162</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.756805930751389</v>
+        <v>5.349187340677193</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.29823433327501</v>
+        <v>8.378896740036886</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.26153196710729</v>
+        <v>11.59311975690864</v>
       </c>
       <c r="O23">
-        <v>27.17692569308173</v>
+        <v>19.5808825024202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.57750269335241</v>
+        <v>25.91155403333184</v>
       </c>
       <c r="C24">
-        <v>9.098992790265891</v>
+        <v>12.76300039713087</v>
       </c>
       <c r="D24">
-        <v>8.113282821389955</v>
+        <v>5.252005877145827</v>
       </c>
       <c r="E24">
-        <v>12.55490316025446</v>
+        <v>7.241283326558253</v>
       </c>
       <c r="F24">
-        <v>35.54064348806587</v>
+        <v>26.18579304873456</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.790164448227234</v>
+        <v>5.442321422335324</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.25695910916954</v>
+        <v>8.024543637627872</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.34378365970842</v>
+        <v>11.86721406962513</v>
       </c>
       <c r="O24">
-        <v>27.22103420750038</v>
+        <v>19.007194299094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.80615498248556</v>
+        <v>23.44793732363166</v>
       </c>
       <c r="C25">
-        <v>8.680885141230418</v>
+        <v>11.83766087397037</v>
       </c>
       <c r="D25">
-        <v>8.106214270931881</v>
+        <v>5.083678034740389</v>
       </c>
       <c r="E25">
-        <v>12.60112839112668</v>
+        <v>7.271871587368681</v>
       </c>
       <c r="F25">
-        <v>35.57655051307744</v>
+        <v>25.17414844487831</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.828938867120781</v>
+        <v>5.54723335641291</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.21735331956647</v>
+        <v>7.636335145322988</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.43945853815873</v>
+        <v>12.17582406264112</v>
       </c>
       <c r="O25">
-        <v>27.29249494016692</v>
+        <v>18.45383078775435</v>
       </c>
     </row>
   </sheetData>
